--- a/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таб. спож. ен. 2023 лютий.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таб. спож. ен. 2023 лютий.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01 - 05" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
@@ -194,6 +195,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -243,19 +247,65 @@
             <v>551</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="11.21"/>
+      <sheetName val="12.21"/>
+      <sheetName val="1.22"/>
+      <sheetName val="2.22"/>
+      <sheetName val="3.22"/>
+      <sheetName val="4.22"/>
+      <sheetName val="5.22"/>
+      <sheetName val="6.22"/>
+      <sheetName val="7.22"/>
+      <sheetName val="8.22"/>
+      <sheetName val="9.22"/>
+      <sheetName val="10.22"/>
+      <sheetName val="11.22"/>
+      <sheetName val="12.22"/>
+      <sheetName val="1.23"/>
+      <sheetName val="2.23"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
         <row r="477">
           <cell r="F477">
-            <v>-70724</v>
+            <v>1020</v>
           </cell>
         </row>
         <row r="484">
           <cell r="F484">
-            <v>-70724</v>
+            <v>1280</v>
           </cell>
         </row>
         <row r="486">
           <cell r="F486">
-            <v>-70724</v>
+            <v>1437</v>
           </cell>
         </row>
       </sheetData>
@@ -307,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1393,12 +1443,12 @@
         <v>1085</v>
       </c>
       <c r="I7" s="7">
-        <f>[1]Лист3!$F$477</f>
-        <v>-70724</v>
+        <f>[2]Лист3!$F$477</f>
+        <v>1020</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>71661</v>
+        <v>-83</v>
       </c>
       <c r="K7" s="7">
         <f>L7-H7</f>
@@ -1673,7 +1723,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,12 +1815,12 @@
         <v>1486</v>
       </c>
       <c r="I7" s="7">
-        <f>[1]Лист3!$F$484</f>
-        <v>-70724</v>
+        <f>[2]Лист3!$F$484</f>
+        <v>1280</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>72013</v>
+        <v>9</v>
       </c>
       <c r="K7" s="7">
         <f>L7-H7</f>
@@ -2045,7 +2095,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,12 +2185,12 @@
         <v>1600</v>
       </c>
       <c r="I7" s="7">
-        <f>[1]Лист3!$F$486</f>
-        <v>-70724</v>
+        <f>[2]Лист3!$F$486</f>
+        <v>1437</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>72167</v>
+        <v>6</v>
       </c>
       <c r="K7" s="7">
         <f>L7-H7</f>
